--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{8FD831D6-D63F-42D6-BECB-369AF65AC3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81ABDC58-8305-4429-9AA8-B65867894C67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DF622-03E9-4495-B63E-1FB33433C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{53D26817-BE4F-4DAB-BE4A-38A456060AB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53D26817-BE4F-4DAB-BE4A-38A456060AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -112,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,9 +479,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>748</v>
       </c>
@@ -559,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>748</v>
       </c>
@@ -597,7 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -635,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -684,7 +682,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\Desafio_Final_TCS\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DF622-03E9-4495-B63E-1FB33433C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{6EBAE902-16DA-4BC7-8329-86CEDBA4D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E133ED-83FB-4596-A845-974CB8D0F1D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53D26817-BE4F-4DAB-BE4A-38A456060AB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752999AC-8150-4C57-A387-906EE4372044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88835F00-FD5A-4529-8551-F87CDE1E8F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A6024-277A-4124-9444-0514DB5E5E0C}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>748</v>
       </c>
@@ -557,7 +563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>748</v>
       </c>
@@ -595,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -633,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -677,12 +683,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE8983A-5825-4F4C-AE15-5327DC67D645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856962D5-27DE-4B3A-8224-35883C5A3BB3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{6EBAE902-16DA-4BC7-8329-86CEDBA4D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E133ED-83FB-4596-A845-974CB8D0F1D5}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{6EBAE902-16DA-4BC7-8329-86CEDBA4D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5BA181F-9369-44A4-9479-7F6F1C8FE11A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752999AC-8150-4C57-A387-906EE4372044}"/>
   </bookViews>

--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{6EBAE902-16DA-4BC7-8329-86CEDBA4D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5BA181F-9369-44A4-9479-7F6F1C8FE11A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8B6E7054-9D5C-465A-903E-DCFD5E423839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD44A9B-30E4-4F02-8878-E3692C81F1A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752999AC-8150-4C57-A387-906EE4372044}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60CD1714-2B76-4656-817D-48843C063E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -158,10 +158,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A6024-277A-4124-9444-0514DB5E5E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37F59BB-0199-41D6-AEF6-6F68E91AC4E7}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -683,7 +679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856962D5-27DE-4B3A-8224-35883C5A3BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B1BB2A-5018-4465-A2E2-83618C5E5EEE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{8B6E7054-9D5C-465A-903E-DCFD5E423839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD44A9B-30E4-4F02-8878-E3692C81F1A0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8B6E7054-9D5C-465A-903E-DCFD5E423839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D6FABA-81AD-4E4E-AC01-F2F51B5BB035}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60CD1714-2B76-4656-817D-48843C063E6D}"/>
   </bookViews>
@@ -158,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Input/purchase_plan_18_7_2025.xlsx
+++ b/Input/purchase_plan_18_7_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puruo\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8B6E7054-9D5C-465A-903E-DCFD5E423839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D6FABA-81AD-4E4E-AC01-F2F51B5BB035}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C8A274-2734-4F17-9782-9E4C57BB672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60CD1714-2B76-4656-817D-48843C063E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60CD1714-2B76-4656-817D-48843C063E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +120,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,12 +176,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,47 +497,47 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>748</v>
       </c>
@@ -563,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>748</v>
       </c>
@@ -601,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -639,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -688,7 +700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
